--- a/TOOLS/generate_decision_tree/Instrument_tree.xlsx
+++ b/TOOLS/generate_decision_tree/Instrument_tree.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axel\Documents\PYTHON\FragHub\TOOLS\generate_decision_tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Axel\PYTHON\FragHub\TOOLS\generate_decision_tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB114A39-127D-4694-880B-55CB7BA12948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADC7BC6-7621-4A5D-9746-89363DB9B896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AB SCIEX" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="325">
   <si>
     <t>MARQUES</t>
   </si>
@@ -1000,13 +1000,16 @@
   </si>
   <si>
     <t>CE</t>
+  </si>
+  <si>
+    <t>IE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1018,6 +1021,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1058,11 +1074,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3568,10 +3586,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3582,6 +3600,7 @@
     <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4224,7 +4243,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>127</v>
       </c>
@@ -4244,18 +4263,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E34" t="s">
         <v>31</v>
@@ -4264,18 +4283,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
         <v>31</v>
@@ -4284,7 +4303,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>127</v>
       </c>
@@ -4295,7 +4314,7 @@
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="E36" t="s">
         <v>31</v>
@@ -4304,12 +4323,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C37" t="s">
         <v>26</v>
@@ -4324,7 +4343,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -4338,18 +4357,18 @@
         <v>166</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>127</v>
       </c>
       <c r="B39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C39" t="s">
         <v>26</v>
@@ -4358,61 +4377,61 @@
         <v>166</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
         <v>26</v>
       </c>
       <c r="D40" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="E40" t="s">
         <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>127</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="F41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>127</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
         <v>27</v>
@@ -4424,12 +4443,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
         <v>26</v>
@@ -4444,12 +4463,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>127</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C44" t="s">
         <v>26</v>
@@ -4464,45 +4483,150 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="F45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B46" t="s">
-        <v>163</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D46" t="s">
-        <v>48</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D46" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F46" t="s">
-        <v>34</v>
-      </c>
+      <c r="F48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4513,7 +4637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>

--- a/TOOLS/generate_decision_tree/Instrument_tree.xlsx
+++ b/TOOLS/generate_decision_tree/Instrument_tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Axel\PYTHON\FragHub\TOOLS\generate_decision_tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADC7BC6-7621-4A5D-9746-89363DB9B896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7486495A-1618-41D4-854C-234BEA5E1D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AB SCIEX" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="327">
   <si>
     <t>MARQUES</t>
   </si>
@@ -1003,6 +1003,12 @@
   </si>
   <si>
     <t>IE</t>
+  </si>
+  <si>
+    <t>GC Orbitrap</t>
+  </si>
+  <si>
+    <t>GC Orbitrap Q-Exactive</t>
   </si>
 </sst>
 </file>
@@ -1446,17 +1452,17 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1476,7 +1482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1496,7 +1502,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1516,7 +1522,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1536,7 +1542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1556,7 +1562,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1576,7 +1582,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1596,7 +1602,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1616,7 +1622,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1636,7 +1642,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1656,7 +1662,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1676,7 +1682,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1696,7 +1702,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1716,7 +1722,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1736,7 +1742,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1756,7 +1762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1796,7 +1802,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1816,7 +1822,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1836,7 +1842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1876,7 +1882,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1896,7 +1902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1934,17 +1940,17 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +1970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1984,7 +1990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -2004,7 +2010,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -2024,7 +2030,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2044,7 +2050,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2064,7 +2070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2084,7 +2090,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -2117,17 +2123,16 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2147,7 +2152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -2167,7 +2172,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -2187,7 +2192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2207,7 +2212,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -2227,7 +2232,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -2247,7 +2252,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -2267,7 +2272,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -2287,7 +2292,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2307,7 +2312,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -2327,7 +2332,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -2347,7 +2352,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2367,7 +2372,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2387,7 +2392,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -2420,17 +2425,17 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2450,7 +2455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -2470,7 +2475,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -2490,7 +2495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -2510,7 +2515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -2530,7 +2535,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -2550,7 +2555,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -2570,7 +2575,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -2603,17 +2608,17 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2633,7 +2638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -2653,7 +2658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -2673,7 +2678,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -2693,7 +2698,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -2713,7 +2718,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -2733,7 +2738,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -2753,7 +2758,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -2773,7 +2778,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -2793,7 +2798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>79</v>
       </c>
@@ -2813,7 +2818,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -2833,7 +2838,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>79</v>
       </c>
@@ -2866,17 +2871,17 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2896,7 +2901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -2916,7 +2921,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -2936,7 +2941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -2956,7 +2961,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -2989,17 +2994,17 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3019,7 +3024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -3039,7 +3044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -3059,7 +3064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -3079,7 +3084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -3099,7 +3104,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -3119,7 +3124,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -3139,7 +3144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -3159,7 +3164,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -3179,7 +3184,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -3199,7 +3204,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -3219,7 +3224,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -3239,7 +3244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>99</v>
       </c>
@@ -3259,7 +3264,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -3279,7 +3284,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -3299,7 +3304,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -3319,7 +3324,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -3339,7 +3344,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -3359,7 +3364,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -3379,7 +3384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -3399,7 +3404,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -3419,7 +3424,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -3439,7 +3444,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -3459,7 +3464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -3479,7 +3484,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -3499,7 +3504,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -3519,7 +3524,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -3539,7 +3544,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -3559,7 +3564,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -3589,21 +3594,21 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3623,7 +3628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -3643,7 +3648,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -3663,7 +3668,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -3683,7 +3688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -3703,7 +3708,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -3723,7 +3728,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -3743,7 +3748,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -3763,7 +3768,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -3783,7 +3788,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>127</v>
       </c>
@@ -3803,7 +3808,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>127</v>
       </c>
@@ -3823,7 +3828,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>127</v>
       </c>
@@ -3843,7 +3848,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -3863,7 +3868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -3883,7 +3888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -3903,7 +3908,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>127</v>
       </c>
@@ -3923,7 +3928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -3943,7 +3948,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -3963,7 +3968,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>127</v>
       </c>
@@ -3983,7 +3988,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -4003,7 +4008,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>127</v>
       </c>
@@ -4023,7 +4028,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -4043,7 +4048,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>127</v>
       </c>
@@ -4063,7 +4068,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>127</v>
       </c>
@@ -4083,7 +4088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>127</v>
       </c>
@@ -4103,7 +4108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>127</v>
       </c>
@@ -4123,7 +4128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>127</v>
       </c>
@@ -4143,7 +4148,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -4163,7 +4168,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>127</v>
       </c>
@@ -4183,7 +4188,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -4203,7 +4208,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>127</v>
       </c>
@@ -4223,7 +4228,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>127</v>
       </c>
@@ -4243,7 +4248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>127</v>
       </c>
@@ -4263,7 +4268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -4283,7 +4288,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>127</v>
       </c>
@@ -4303,7 +4308,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>127</v>
       </c>
@@ -4323,7 +4328,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -4343,7 +4348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -4363,7 +4368,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>127</v>
       </c>
@@ -4383,7 +4388,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>127</v>
       </c>
@@ -4403,7 +4408,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -4423,7 +4428,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -4443,7 +4448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -4463,7 +4468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -4483,7 +4488,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>127</v>
       </c>
@@ -4503,12 +4508,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>146</v>
+        <v>325</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>44</v>
@@ -4523,12 +4528,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>146</v>
+        <v>325</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>44</v>
@@ -4543,12 +4548,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>146</v>
+        <v>325</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>44</v>
@@ -4564,12 +4569,12 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>153</v>
+        <v>326</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>44</v>
@@ -4584,12 +4589,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>153</v>
+        <v>326</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>44</v>
@@ -4604,12 +4609,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>153</v>
+        <v>326</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>44</v>
@@ -4625,7 +4630,7 @@
       </c>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
     </row>
   </sheetData>
@@ -4641,17 +4646,17 @@
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4671,7 +4676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -4691,7 +4696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -4711,7 +4716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>168</v>
       </c>
@@ -4731,7 +4736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>168</v>
       </c>
@@ -4751,7 +4756,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -4771,7 +4776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>168</v>
       </c>
@@ -4791,7 +4796,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -4811,7 +4816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>168</v>
       </c>
@@ -4831,7 +4836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>168</v>
       </c>
@@ -4851,7 +4856,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>168</v>
       </c>
@@ -4871,7 +4876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>168</v>
       </c>
@@ -4891,7 +4896,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>168</v>
       </c>
@@ -4911,7 +4916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>168</v>
       </c>
@@ -4931,7 +4936,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>168</v>
       </c>
@@ -4951,7 +4956,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -4971,7 +4976,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>168</v>
       </c>
@@ -4991,7 +4996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>168</v>
       </c>
@@ -5011,7 +5016,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -5031,7 +5036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -5051,7 +5056,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -5071,7 +5076,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>168</v>
       </c>
@@ -5091,7 +5096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>168</v>
       </c>
@@ -5111,7 +5116,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>168</v>
       </c>
@@ -5131,7 +5136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>168</v>
       </c>
@@ -5151,7 +5156,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -5171,7 +5176,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>168</v>
       </c>
@@ -5191,7 +5196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>168</v>
       </c>
@@ -5211,7 +5216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>168</v>
       </c>
@@ -5231,7 +5236,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>168</v>
       </c>
@@ -5251,7 +5256,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>168</v>
       </c>
@@ -5271,7 +5276,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>168</v>
       </c>
@@ -5291,7 +5296,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>168</v>
       </c>
@@ -5311,7 +5316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>168</v>
       </c>
@@ -5331,7 +5336,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>168</v>
       </c>
@@ -5351,7 +5356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>168</v>
       </c>
@@ -5371,7 +5376,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>168</v>
       </c>
@@ -5391,7 +5396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>168</v>
       </c>
@@ -5411,7 +5416,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>168</v>
       </c>
@@ -5431,7 +5436,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>168</v>
       </c>
@@ -5451,7 +5456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>168</v>
       </c>
@@ -5471,7 +5476,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>168</v>
       </c>
@@ -5491,7 +5496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>168</v>
       </c>
@@ -5511,7 +5516,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>168</v>
       </c>
@@ -5531,7 +5536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -5551,7 +5556,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -5571,7 +5576,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>168</v>
       </c>
@@ -5591,7 +5596,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>168</v>
       </c>
@@ -5611,7 +5616,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>168</v>
       </c>
@@ -5631,7 +5636,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>168</v>
       </c>
@@ -5651,7 +5656,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>168</v>
       </c>
@@ -5671,7 +5676,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>168</v>
       </c>
@@ -5691,7 +5696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>168</v>
       </c>
@@ -5711,7 +5716,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>168</v>
       </c>
@@ -5731,7 +5736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>168</v>
       </c>
@@ -5751,7 +5756,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>168</v>
       </c>
@@ -5771,7 +5776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>168</v>
       </c>
@@ -5791,7 +5796,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>168</v>
       </c>
@@ -5811,7 +5816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>168</v>
       </c>
@@ -5831,7 +5836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>168</v>
       </c>
@@ -5851,7 +5856,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>168</v>
       </c>
@@ -5871,7 +5876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>168</v>
       </c>
@@ -5891,7 +5896,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>168</v>
       </c>
@@ -5911,7 +5916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>168</v>
       </c>
@@ -5931,7 +5936,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>168</v>
       </c>
@@ -5951,7 +5956,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>168</v>
       </c>
@@ -5971,7 +5976,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>168</v>
       </c>
@@ -5991,7 +5996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>168</v>
       </c>
@@ -6011,7 +6016,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>168</v>
       </c>
@@ -6031,7 +6036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>168</v>
       </c>
@@ -6051,7 +6056,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>168</v>
       </c>
@@ -6071,7 +6076,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>168</v>
       </c>
@@ -6091,7 +6096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>168</v>
       </c>
@@ -6111,7 +6116,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>168</v>
       </c>
@@ -6131,7 +6136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>168</v>
       </c>
@@ -6151,7 +6156,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>168</v>
       </c>
@@ -6171,7 +6176,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>168</v>
       </c>
@@ -6191,7 +6196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>168</v>
       </c>
@@ -6211,7 +6216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>168</v>
       </c>
@@ -6231,7 +6236,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>168</v>
       </c>
@@ -6251,7 +6256,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>168</v>
       </c>
@@ -6271,7 +6276,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>168</v>
       </c>
@@ -6291,7 +6296,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>168</v>
       </c>
@@ -6311,7 +6316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>168</v>
       </c>
@@ -6331,7 +6336,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>168</v>
       </c>
@@ -6351,7 +6356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>168</v>
       </c>
@@ -6371,7 +6376,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>168</v>
       </c>
@@ -6391,7 +6396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>168</v>
       </c>
@@ -6411,7 +6416,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>168</v>
       </c>
@@ -6431,7 +6436,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>168</v>
       </c>
@@ -6451,7 +6456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>168</v>
       </c>
@@ -6471,7 +6476,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>168</v>
       </c>
@@ -6491,7 +6496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>168</v>
       </c>
@@ -6511,7 +6516,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>168</v>
       </c>
@@ -6531,7 +6536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>168</v>
       </c>
@@ -6551,7 +6556,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>168</v>
       </c>
@@ -6571,7 +6576,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>168</v>
       </c>
@@ -6591,7 +6596,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>168</v>
       </c>
@@ -6611,7 +6616,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>168</v>
       </c>
@@ -6631,7 +6636,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>168</v>
       </c>
@@ -6651,7 +6656,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>168</v>
       </c>
@@ -6671,7 +6676,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>168</v>
       </c>
@@ -6691,7 +6696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>168</v>
       </c>
@@ -6711,7 +6716,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>168</v>
       </c>
@@ -6731,7 +6736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>168</v>
       </c>
@@ -6751,7 +6756,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>168</v>
       </c>
@@ -6771,7 +6776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>168</v>
       </c>
@@ -6791,7 +6796,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>168</v>
       </c>
@@ -6811,7 +6816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>168</v>
       </c>
@@ -6831,7 +6836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>168</v>
       </c>
@@ -6851,7 +6856,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>168</v>
       </c>
@@ -6871,7 +6876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>168</v>
       </c>
@@ -6891,7 +6896,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>168</v>
       </c>
@@ -6911,7 +6916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>168</v>
       </c>
@@ -6931,7 +6936,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>168</v>
       </c>
@@ -6951,7 +6956,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>168</v>
       </c>
@@ -6971,7 +6976,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>168</v>
       </c>
@@ -6991,7 +6996,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>168</v>
       </c>
@@ -7011,7 +7016,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>168</v>
       </c>
@@ -7031,7 +7036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>168</v>
       </c>
@@ -7051,7 +7056,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>168</v>
       </c>
@@ -7071,7 +7076,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>168</v>
       </c>
@@ -7091,7 +7096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>168</v>
       </c>
@@ -7111,7 +7116,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>168</v>
       </c>
@@ -7131,7 +7136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>168</v>
       </c>
@@ -7151,7 +7156,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>168</v>
       </c>
@@ -7171,7 +7176,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>168</v>
       </c>
@@ -7191,7 +7196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>168</v>
       </c>
@@ -7211,7 +7216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>168</v>
       </c>
@@ -7231,7 +7236,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>168</v>
       </c>
@@ -7251,7 +7256,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>168</v>
       </c>
@@ -7271,7 +7276,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>168</v>
       </c>
@@ -7291,7 +7296,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>168</v>
       </c>
@@ -7311,7 +7316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>168</v>
       </c>
@@ -7331,7 +7336,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>168</v>
       </c>
@@ -7351,7 +7356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>168</v>
       </c>
@@ -7371,7 +7376,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>168</v>
       </c>
@@ -7391,7 +7396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>168</v>
       </c>
@@ -7411,7 +7416,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>168</v>
       </c>
@@ -7431,7 +7436,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>168</v>
       </c>
@@ -7451,7 +7456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>168</v>
       </c>
@@ -7471,7 +7476,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>168</v>
       </c>
@@ -7491,7 +7496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>168</v>
       </c>
@@ -7511,7 +7516,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>168</v>
       </c>
@@ -7531,7 +7536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>168</v>
       </c>
@@ -7551,7 +7556,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>168</v>
       </c>
@@ -7571,7 +7576,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>168</v>
       </c>
@@ -7591,7 +7596,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>168</v>
       </c>
@@ -7611,7 +7616,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>168</v>
       </c>
@@ -7631,7 +7636,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>168</v>
       </c>
@@ -7651,7 +7656,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>168</v>
       </c>
@@ -7671,7 +7676,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>168</v>
       </c>
@@ -7691,7 +7696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>168</v>
       </c>
@@ -7711,7 +7716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -7731,7 +7736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>168</v>
       </c>
@@ -7751,7 +7756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>168</v>
       </c>
